--- a/biology/Zoologie/Erynnis_horatius/Erynnis_horatius.xlsx
+++ b/biology/Zoologie/Erynnis_horatius/Erynnis_horatius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erynnis horatius est un insecte lépidoptère de la famille des Hesperiidae, de la sous-famille des Pyrginae et du genre Erynnis.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erynnis horatius a été décrit par Samuel Hubbard Scudder en 1870 sous le nom de Nisoniades horatius[1].
-Noms vernaculaires
-Erynnis horatius se nomme en anglais Horace's Duskywing [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erynnis horatius a été décrit par Samuel Hubbard Scudder en 1870 sous le nom de Nisoniades horatius.
 </t>
         </is>
       </c>
@@ -541,12 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un papillon marron d'une envergure variant de 28 mm à 42 mm au dessus marron foncé orné de quelques petits points blancs, plus grands chez la femelle[2].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erynnis horatius se nomme en anglais Horace's Duskywing .
 </t>
         </is>
       </c>
@@ -572,16 +590,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en deux générations entre avril et septembre.
-Il hiverne au stade de chenille[3]
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Quercus, Quercus gambelii, Quercus ilicifolia,Quercus muehlenbergii, Quercus nigra, Quercus phellos,Quercus stellata,Quercus texana ,et Quercus velutina[1],[3].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon marron d'une envergure variant de 28 mm à 42 mm au dessus marron foncé orné de quelques petits points blancs, plus grands chez la femelle.
 </t>
         </is>
       </c>
@@ -607,16 +623,163 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en deux générations entre avril et septembre.
+Il hiverne au stade de chenille
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Erynnis_horatius</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erynnis_horatius</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Quercus, Quercus gambelii, Quercus ilicifolia,Quercus muehlenbergii, Quercus nigra, Quercus phellos,Quercus stellata,Quercus texana ,et Quercus velutina,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Erynnis_horatius</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erynnis_horatius</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il réside en Amérique du Nord, dans tout le centre et l'est des USA et au Mexique[1],[3]. C'est un migrateur rare au Canada dans le sud de l'Ontario[2].
-Biotope
-Il réside dans les champs et au bord des routes[3].
-Protection
-Pas de statut de protection particulier[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en Amérique du Nord, dans tout le centre et l'est des USA et au Mexique,. C'est un migrateur rare au Canada dans le sud de l'Ontario.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Erynnis_horatius</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erynnis_horatius</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les champs et au bord des routes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Erynnis_horatius</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erynnis_horatius</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
